--- a/PROGRAM/R generation of KTP/Teaching_group_set_up.xlsx
+++ b/PROGRAM/R generation of KTP/Teaching_group_set_up.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="22368" windowHeight="9407"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>Д.А.Аристов</t>
   </si>
   <si>
-    <t>Пятица</t>
+    <t>Пятница</t>
   </si>
   <si>
     <t>Вторник</t>
@@ -90,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -113,99 +113,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,21 +227,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -242,8 +234,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,181 +271,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +456,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,11 +485,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,15 +542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -538,171 +556,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>

--- a/PROGRAM/R generation of KTP/Teaching_group_set_up.xlsx
+++ b/PROGRAM/R generation of KTP/Teaching_group_set_up.xlsx
@@ -90,9 +90,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -113,25 +113,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,38 +233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,22 +243,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,52 +251,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,13 +265,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,19 +403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,109 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,30 +446,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,26 +459,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,20 +494,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,21 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -556,153 +541,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -729,9 +729,9 @@
     <cellStyle name="Итого" xfId="11" builtinId="25"/>
     <cellStyle name="Вывод" xfId="12" builtinId="21"/>
     <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="Примечание" xfId="14" builtinId="10"/>
-    <cellStyle name="40% — Акцент4" xfId="15" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
     <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
     <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
     <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>

--- a/PROGRAM/R generation of KTP/Teaching_group_set_up.xlsx
+++ b/PROGRAM/R generation of KTP/Teaching_group_set_up.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9407"/>
+    <workbookView windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Group</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Пятница</t>
   </si>
   <si>
-    <t>Вторник</t>
+    <t>Вторник,1</t>
   </si>
   <si>
     <t>Воскресенье,1</t>
@@ -61,7 +61,7 @@
     <t>Понедельник</t>
   </si>
   <si>
-    <t>Четверг</t>
+    <t>Четверг,1</t>
   </si>
   <si>
     <t>Понедельник,Суббота</t>
@@ -76,7 +76,10 @@
     <t>Суббота</t>
   </si>
   <si>
-    <t>Среда</t>
+    <t>Среда,1</t>
+  </si>
+  <si>
+    <t>В.С.Котельникова</t>
   </si>
   <si>
     <t>Пятница,Суббота</t>
@@ -90,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -113,12 +116,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -126,17 +173,66 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,102 +251,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +459,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,6 +482,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,56 +545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -561,148 +564,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,7 +1038,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1070,7 +1073,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1090,7 +1093,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1104,7 +1107,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1121,7 +1124,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1141,7 +1144,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1155,7 +1158,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1172,7 +1175,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1192,13 +1195,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>144</v>
@@ -1206,13 +1209,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>

--- a/PROGRAM/R generation of KTP/Teaching_group_set_up.xlsx
+++ b/PROGRAM/R generation of KTP/Teaching_group_set_up.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Group</t>
   </si>
@@ -40,16 +40,19 @@
     <t>Пятница</t>
   </si>
   <si>
-    <t>Вторник,1</t>
+    <t>Суббота,3</t>
   </si>
   <si>
     <t>Воскресенье,1</t>
   </si>
   <si>
-    <t>Вторник,Суббота</t>
-  </si>
-  <si>
-    <t>Понедельник,Четверг</t>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Среда,2</t>
+  </si>
+  <si>
+    <t>Вторник,Четверг</t>
   </si>
   <si>
     <t>Воскресенье,2</t>
@@ -58,16 +61,16 @@
     <t>А.В.Полоскин</t>
   </si>
   <si>
-    <t>Понедельник</t>
-  </si>
-  <si>
-    <t>Четверг,1</t>
-  </si>
-  <si>
-    <t>Понедельник,Суббота</t>
-  </si>
-  <si>
-    <t>Среда,Четверг</t>
+    <t>Пятница,1</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Вторник,2</t>
+  </si>
+  <si>
+    <t>Четверг,Суббота</t>
   </si>
   <si>
     <t>В.М.Хайтов</t>
@@ -76,16 +79,16 @@
     <t>Суббота</t>
   </si>
   <si>
-    <t>Среда,1</t>
+    <t>Понедельник,1</t>
   </si>
   <si>
     <t>В.С.Котельникова</t>
   </si>
   <si>
-    <t>Пятница,Суббота</t>
-  </si>
-  <si>
-    <t>Вторник,Среда</t>
+    <t>Четверг,3</t>
+  </si>
+  <si>
+    <t>Вторник,Пятница</t>
   </si>
 </sst>
 </file>
@@ -95,8 +98,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -122,6 +125,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -129,92 +156,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,32 +240,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,15 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,11 +482,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +500,41 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,177 +562,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -718,55 +721,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1038,7 +1041,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1101,6 +1104,9 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
       <c r="F3">
         <v>144</v>
       </c>
@@ -1113,10 +1119,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>288</v>
@@ -1127,10 +1133,10 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -1147,10 +1153,13 @@
         <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
       </c>
       <c r="F6">
         <v>144</v>
@@ -1161,13 +1170,13 @@
         <v>405</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
       </c>
       <c r="F7">
         <v>288</v>
@@ -1178,13 +1187,13 @@
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1198,10 +1207,13 @@
         <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
       </c>
       <c r="F9">
         <v>144</v>
@@ -1212,13 +1224,13 @@
         <v>306</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>288</v>
